--- a/data/trans_orig/IP36A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP36A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3820F1D7-1294-4AF3-8D2A-D5147C3CC287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542EB389-1DD8-4AA3-8B8D-C6A78B3A52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AD19FDA-504E-4031-A6D3-764414D2B7D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{770E0409-AD62-4052-9457-D99831E8C2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="373">
   <si>
     <t>Adultos según si perciben alguna pensión en 2007 (Tasa respuesta: 44,01%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,847 +101,853 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2015 (Tasa respuesta: 49,58%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
@@ -959,43 +965,46 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>53,72%</t>
+    <t>50,43%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>65,44%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>47,39%</t>
+    <t>48,41%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>46,28%</t>
+    <t>49,57%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>34,56%</t>
+    <t>41,15%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>52,61%</t>
+    <t>51,59%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>58,94%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -1004,16 +1013,19 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>41,06%</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -1022,46 +1034,40 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>32,3%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>67,7%</t>
+    <t>65,28%</t>
   </si>
   <si>
     <t>64,43%</t>
@@ -1070,16 +1076,16 @@
     <t>24,9%</t>
   </si>
   <si>
-    <t>66,46%</t>
+    <t>60,44%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>35,57%</t>
@@ -1088,70 +1094,70 @@
     <t>75,1%</t>
   </si>
   <si>
-    <t>33,54%</t>
+    <t>39,56%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDF9B27-A4B7-4A20-9A02-F521F8CF2480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C29C6E8-C98B-4CB6-BA92-3AAD9578368A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2498,7 +2504,7 @@
         <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2519,13 @@
         <v>293505</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>418</v>
@@ -2528,13 +2534,13 @@
         <v>278989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>859</v>
@@ -2543,13 +2549,13 @@
         <v>572494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,7 +2611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC760D8-A17A-403F-8A66-438921933303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E75AD7-B119-450F-9BA6-3C2A18B5ACB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2756,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2765,13 +2771,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2780,13 +2786,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2816,10 +2822,10 @@
         <v>14881</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2831,10 +2837,10 @@
         <v>27818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -2905,13 +2911,13 @@
         <v>6653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2920,13 +2926,13 @@
         <v>3238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2935,13 +2941,13 @@
         <v>9890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>70958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>88</v>
@@ -2971,13 +2977,13 @@
         <v>62667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -2986,13 +2992,13 @@
         <v>133625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3066,13 @@
         <v>12432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3075,13 +3081,13 @@
         <v>14745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3090,13 +3096,13 @@
         <v>27178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>114207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3126,13 +3132,13 @@
         <v>102517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -3141,13 +3147,13 @@
         <v>216724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3221,13 @@
         <v>10845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3230,13 +3236,13 @@
         <v>9353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3245,13 +3251,13 @@
         <v>20198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3272,13 @@
         <v>81306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -3281,13 +3287,13 @@
         <v>71686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -3296,13 +3302,13 @@
         <v>152992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3376,13 @@
         <v>11829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3385,13 +3391,13 @@
         <v>10402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3400,13 +3406,13 @@
         <v>22230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3427,13 @@
         <v>91916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -3436,13 +3442,13 @@
         <v>93953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>246</v>
@@ -3451,10 +3457,10 @@
         <v>185870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>193</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EDCC90-115F-4148-B01E-98ABD3F23E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422EA90B-84D1-406F-A521-D347C209A0BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,10 +3992,10 @@
         <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3998,13 +4004,13 @@
         <v>7924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4025,13 @@
         <v>63440</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4034,13 +4040,13 @@
         <v>59229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -4049,13 +4055,13 @@
         <v>122668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4129,13 @@
         <v>12891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4138,13 +4144,13 @@
         <v>11080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4153,13 +4159,13 @@
         <v>23970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,10 +4213,10 @@
         <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4284,13 @@
         <v>11556</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4293,13 +4299,13 @@
         <v>7618</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -4308,13 +4314,13 @@
         <v>19174</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4335,13 @@
         <v>67311</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -4344,13 +4350,13 @@
         <v>69621</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>215</v>
@@ -4359,13 +4365,13 @@
         <v>136931</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4439,13 @@
         <v>15173</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4448,13 +4454,13 @@
         <v>8319</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4463,13 +4469,13 @@
         <v>23492</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4490,13 @@
         <v>68771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
@@ -4499,13 +4505,13 @@
         <v>86995</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4514,13 +4520,13 @@
         <v>155765</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,10 +4594,10 @@
         <v>44676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>287</v>
@@ -4639,13 +4645,13 @@
         <v>319331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>489</v>
@@ -4654,13 +4660,13 @@
         <v>327238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>942</v>
@@ -4669,13 +4675,13 @@
         <v>646570</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4752,7 +4758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E604AD-8AB5-4419-B467-6DBB4B8C5947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24C9E15-F892-49AA-90A5-3818B631DE67}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4769,7 +4775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4874,13 +4880,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4892,7 +4898,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -4907,7 +4913,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>18</v>
@@ -4923,13 +4929,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4944,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4959,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4978,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5025,13 +5031,13 @@
         <v>366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5040,13 +5046,13 @@
         <v>1099</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5055,13 +5061,13 @@
         <v>1465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,10 +5082,10 @@
         <v>3287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -5091,10 +5097,10 @@
         <v>5180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -5106,10 +5112,10 @@
         <v>8467</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -5180,13 +5186,13 @@
         <v>3030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5201,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5210,13 +5216,13 @@
         <v>3030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5237,13 @@
         <v>8992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5249,7 +5255,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -5261,13 +5267,13 @@
         <v>15899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5341,13 @@
         <v>705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5350,13 +5356,13 @@
         <v>800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5365,13 +5371,13 @@
         <v>1504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,10 +5392,10 @@
         <v>4343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -5401,10 +5407,10 @@
         <v>7628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -5416,10 +5422,10 @@
         <v>11972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -5490,7 +5496,7 @@
         <v>2250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -5505,13 +5511,13 @@
         <v>2025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5520,13 +5526,13 @@
         <v>4276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5547,7 @@
         <v>1243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -5556,10 +5562,10 @@
         <v>6109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -5571,13 +5577,13 @@
         <v>7352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5651,13 @@
         <v>6351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5660,13 +5666,13 @@
         <v>4497</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5675,13 +5681,13 @@
         <v>10848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5702,13 @@
         <v>17865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -5711,13 +5717,13 @@
         <v>25825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -5726,13 +5732,13 @@
         <v>43689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,7 +5794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
